--- a/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-ST1\St1Share\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8436"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,343 +92,347 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>EmpId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaChiefName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id3Name</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamChiefName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamChiefNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CusBNo,HlCusNo,AmountNo,CaseNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸換算業績網頁查詢檔</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CusBNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlCusNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmountNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AplAmount</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IfCal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TActAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlEmpName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirAppDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiReteNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoYag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreeYag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoPay</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreePay</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitChiefNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitChiefName</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaChiefNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id0Name</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業單位別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用額度</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>計件代碼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已計件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計達成金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次撥款日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本利率代碼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>二階換算業績</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三階換算業績</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>二階業務報酬</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>三階業務報酬</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateIdentifier</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>HlThreeDetail</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EmpId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaChiefName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id3Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamChiefName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamChiefNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CusBNo,HlCusNo,AmountNo,CaseNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸換算業績網頁查詢檔</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CusBNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlCusNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmountNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AplAmount</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IfCal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TActAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlEmpName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirAppDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BiReteNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TwoYag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThreeYag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TwoPay</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThreePay</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitChiefNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitChiefName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaChiefNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id0Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>營業單位別</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人戶號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已用額度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>計件代碼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已計件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計達成金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>統一編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次撥款日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本利率代碼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>二階換算業績</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>三階換算業績</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>二階業務報酬</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>三階業務報酬</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>統一編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateIdentifier</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DecimalD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1012,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1033,10 +1038,10 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1061,7 +1066,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1142,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="25">
         <v>2</v>
@@ -1161,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="25">
         <v>14</v>
@@ -1181,13 +1186,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="25">
         <v>3</v>
@@ -1199,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="25">
         <v>14</v>
@@ -1219,13 +1224,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
@@ -1238,13 +1243,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
@@ -1257,13 +1262,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="25">
         <v>30</v>
@@ -1275,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="25">
         <v>10</v>
@@ -1293,13 +1298,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="25">
         <v>10</v>
@@ -1313,13 +1318,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="25">
         <v>15</v>
@@ -1333,13 +1338,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="25">
         <v>6</v>
@@ -1353,13 +1358,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="25">
         <v>50</v>
@@ -1373,13 +1378,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="25">
         <v>6</v>
@@ -1393,13 +1398,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="25">
         <v>20</v>
@@ -1413,13 +1418,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="25">
         <v>20</v>
@@ -1433,13 +1438,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="25">
         <v>20</v>
@@ -1451,13 +1456,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="25">
         <v>8</v>
@@ -1469,13 +1474,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="25">
         <v>2</v>
@@ -1487,13 +1492,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="25">
         <v>14</v>
@@ -1507,13 +1512,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="25">
         <v>14</v>
@@ -1527,13 +1532,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="25">
         <v>14</v>
@@ -1547,13 +1552,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="25">
         <v>14</v>
@@ -1567,13 +1572,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="25">
         <v>10</v>
@@ -1585,13 +1590,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="25">
         <v>15</v>
@@ -1603,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="25">
         <v>10</v>
@@ -1621,13 +1626,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="25">
         <v>15</v>
@@ -1639,13 +1644,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="25">
         <v>10</v>
@@ -1657,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="25">
         <v>15</v>
@@ -1675,13 +1680,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="25">
         <v>10</v>
@@ -1693,13 +1698,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="25">
         <v>15</v>
@@ -1711,13 +1716,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="25">
         <v>10</v>
@@ -1729,13 +1734,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="25">
         <v>15</v>
@@ -1747,13 +1752,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="25">
         <v>7</v>
@@ -1765,13 +1770,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="25">
         <v>8</v>
@@ -1783,13 +1788,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="25">
         <v>8</v>
@@ -1801,13 +1806,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="25">
         <v>6</v>
@@ -1819,13 +1824,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="25">
         <v>8</v>
@@ -1837,13 +1842,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="25">
         <v>6</v>
